--- a/data/aux/Equipos.xlsx
+++ b/data/aux/Equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloseduardogomeztorres/Desktop/BIA/TFG/datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloseduardogomeztorres/Desktop/BIA/TFG/data/aux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D255C-71C1-FB43-8727-07E9EE3E0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87E722-8982-0F45-9ECD-7DB4CCE49E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="16300" windowHeight="17500" xr2:uid="{FEC05940-2B25-9943-B2F3-CBE66EC2FBE8}"/>
   </bookViews>
@@ -37,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="561">
-  <si>
-    <t>Equipo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="562">
   <si>
     <t>País</t>
   </si>
   <si>
-    <t>ID BvD</t>
-  </si>
-  <si>
     <t>Real Madrid</t>
   </si>
   <si>
@@ -1104,12 +1098,6 @@
     <t>Borussia Mönchengladbach</t>
   </si>
   <si>
-    <t>Transfermarkt Handle</t>
-  </si>
-  <si>
-    <t>Transfermarkt ID</t>
-  </si>
-  <si>
     <t>real-madrid</t>
   </si>
   <si>
@@ -1720,6 +1708,21 @@
   </si>
   <si>
     <t>SV Wehen Wiesbaden</t>
+  </si>
+  <si>
+    <t>EQUIPO</t>
+  </si>
+  <si>
+    <t>BvD_ID</t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
+  <si>
+    <t>TRANSFERMARKT_ID</t>
+  </si>
+  <si>
+    <t>TRANSFERMARKT_HANDLE</t>
   </si>
 </sst>
 </file>
@@ -2118,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B85179C-92BE-5F42-8C39-ADD9E59DFB51}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2133,33 +2136,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>558</v>
       </c>
       <c r="D1" t="s">
-        <v>355</v>
+        <v>561</v>
       </c>
       <c r="E1" t="s">
-        <v>356</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E2">
         <v>418</v>
@@ -2167,16 +2170,16 @@
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E3">
         <v>131</v>
@@ -2184,16 +2187,16 @@
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E4">
         <v>12321</v>
@@ -2201,16 +2204,16 @@
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -2218,16 +2221,16 @@
     </row>
     <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E6">
         <v>621</v>
@@ -2235,16 +2238,16 @@
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E7">
         <v>681</v>
@@ -2252,16 +2255,16 @@
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -2269,16 +2272,16 @@
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E9">
         <v>1050</v>
@@ -2286,16 +2289,16 @@
     </row>
     <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E10">
         <v>1049</v>
@@ -2303,16 +2306,16 @@
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E11">
         <v>1108</v>
@@ -2320,16 +2323,16 @@
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E12">
         <v>331</v>
@@ -2337,16 +2340,16 @@
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E13">
         <v>3709</v>
@@ -2354,16 +2357,16 @@
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E14">
         <v>368</v>
@@ -2371,16 +2374,16 @@
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E15">
         <v>940</v>
@@ -2388,16 +2391,16 @@
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E16">
         <v>472</v>
@@ -2405,16 +2408,16 @@
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E17">
         <v>367</v>
@@ -2422,16 +2425,16 @@
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E18">
         <v>237</v>
@@ -2439,16 +2442,16 @@
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E19">
         <v>2687</v>
@@ -2456,16 +2459,16 @@
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E20">
         <v>16795</v>
@@ -2473,16 +2476,16 @@
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E21">
         <v>3302</v>
@@ -2490,16 +2493,16 @@
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E22">
         <v>1244</v>
@@ -2507,16 +2510,16 @@
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E23">
         <v>366</v>
@@ -2524,16 +2527,16 @@
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E24">
         <v>1533</v>
@@ -2541,16 +2544,16 @@
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E25">
         <v>714</v>
@@ -2558,16 +2561,16 @@
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E26">
         <v>630</v>
@@ -2575,16 +2578,16 @@
     </row>
     <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E27">
         <v>2497</v>
@@ -2592,16 +2595,16 @@
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E28">
         <v>2448</v>
@@ -2609,16 +2612,16 @@
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E29">
         <v>1531</v>
@@ -2626,16 +2629,16 @@
     </row>
     <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E30">
         <v>1176</v>
@@ -2643,16 +2646,16 @@
     </row>
     <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E31">
         <v>3368</v>
@@ -2660,16 +2663,16 @@
     </row>
     <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E32">
         <v>1536</v>
@@ -2677,16 +2680,16 @@
     </row>
     <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E33">
         <v>648</v>
@@ -2694,16 +2697,16 @@
     </row>
     <row r="34" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E34">
         <v>7077</v>
@@ -2711,16 +2714,16 @@
     </row>
     <row r="35" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E35">
         <v>1532</v>
@@ -2728,16 +2731,16 @@
     </row>
     <row r="36" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E36">
         <v>142</v>
@@ -2745,16 +2748,16 @@
     </row>
     <row r="37" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E37">
         <v>12567</v>
@@ -2762,16 +2765,16 @@
     </row>
     <row r="38" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E38">
         <v>5358</v>
@@ -2779,16 +2782,16 @@
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E39">
         <v>13222</v>
@@ -2796,14 +2799,14 @@
     </row>
     <row r="40" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E40">
         <v>16575</v>
@@ -2811,16 +2814,16 @@
     </row>
     <row r="41" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E41">
         <v>11596</v>
@@ -2828,14 +2831,14 @@
     </row>
     <row r="42" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E42">
         <v>10718</v>
@@ -2843,16 +2846,16 @@
     </row>
     <row r="43" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E43">
         <v>281</v>
@@ -2860,16 +2863,16 @@
     </row>
     <row r="44" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E44">
         <v>11</v>
@@ -2877,16 +2880,16 @@
     </row>
     <row r="45" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E45">
         <v>31</v>
@@ -2894,16 +2897,16 @@
     </row>
     <row r="46" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E46">
         <v>405</v>
@@ -2911,16 +2914,16 @@
     </row>
     <row r="47" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E47">
         <v>148</v>
@@ -2928,16 +2931,16 @@
     </row>
     <row r="48" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E48">
         <v>631</v>
@@ -2945,16 +2948,16 @@
     </row>
     <row r="49" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E49">
         <v>762</v>
@@ -2962,16 +2965,16 @@
     </row>
     <row r="50" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D50" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E50">
         <v>985</v>
@@ -2979,16 +2982,16 @@
     </row>
     <row r="51" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E51">
         <v>379</v>
@@ -2996,13 +2999,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E52">
         <v>873</v>
@@ -3010,16 +3013,16 @@
     </row>
     <row r="53" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E53">
         <v>1237</v>
@@ -3027,16 +3030,16 @@
     </row>
     <row r="54" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E54">
         <v>989</v>
@@ -3044,16 +3047,16 @@
     </row>
     <row r="55" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E55">
         <v>931</v>
@@ -3061,16 +3064,16 @@
     </row>
     <row r="56" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E56">
         <v>543</v>
@@ -3078,16 +3081,16 @@
     </row>
     <row r="57" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E57">
         <v>29</v>
@@ -3095,16 +3098,16 @@
     </row>
     <row r="58" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E58">
         <v>1148</v>
@@ -3112,16 +3115,16 @@
     </row>
     <row r="59" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E59">
         <v>703</v>
@@ -3129,16 +3132,16 @@
     </row>
     <row r="60" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E60">
         <v>1031</v>
@@ -3146,16 +3149,16 @@
     </row>
     <row r="61" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E61">
         <v>1132</v>
@@ -3163,16 +3166,16 @@
     </row>
     <row r="62" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E62">
         <v>350</v>
@@ -3180,16 +3183,16 @@
     </row>
     <row r="63" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E63">
         <v>1003</v>
@@ -3197,16 +3200,16 @@
     </row>
     <row r="64" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D64" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E64">
         <v>677</v>
@@ -3214,16 +3217,16 @@
     </row>
     <row r="65" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E65">
         <v>399</v>
@@ -3231,16 +3234,16 @@
     </row>
     <row r="66" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E66">
         <v>180</v>
@@ -3248,16 +3251,16 @@
     </row>
     <row r="67" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E67">
         <v>984</v>
@@ -3265,16 +3268,16 @@
     </row>
     <row r="68" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E68">
         <v>1123</v>
@@ -3282,16 +3285,16 @@
     </row>
     <row r="69" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E69">
         <v>3008</v>
@@ -3299,16 +3302,16 @@
     </row>
     <row r="70" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D70" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E70">
         <v>641</v>
@@ -3316,16 +3319,16 @@
     </row>
     <row r="71" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E71">
         <v>990</v>
@@ -3333,16 +3336,16 @@
     </row>
     <row r="72" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E72">
         <v>466</v>
@@ -3350,16 +3353,16 @@
     </row>
     <row r="73" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E73">
         <v>698</v>
@@ -3367,16 +3370,16 @@
     </row>
     <row r="74" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E74">
         <v>603</v>
@@ -3384,16 +3387,16 @@
     </row>
     <row r="75" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D75" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E75">
         <v>1028</v>
@@ -3401,16 +3404,16 @@
     </row>
     <row r="76" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E76">
         <v>2288</v>
@@ -3418,16 +3421,16 @@
     </row>
     <row r="77" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D77" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E77">
         <v>1010</v>
@@ -3435,16 +3438,16 @@
     </row>
     <row r="78" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D78" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E78">
         <v>289</v>
@@ -3452,16 +3455,16 @@
     </row>
     <row r="79" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D79" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E79">
         <v>512</v>
@@ -3469,16 +3472,16 @@
     </row>
     <row r="80" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E80">
         <v>1039</v>
@@ -3486,16 +3489,16 @@
     </row>
     <row r="81" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E81">
         <v>164</v>
@@ -3503,16 +3506,16 @@
     </row>
     <row r="82" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E82">
         <v>1035</v>
@@ -3520,16 +3523,16 @@
     </row>
     <row r="83" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E83">
         <v>2262</v>
@@ -3537,16 +3540,16 @@
     </row>
     <row r="84" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E84">
         <v>337</v>
@@ -3554,16 +3557,16 @@
     </row>
     <row r="85" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E85">
         <v>1110</v>
@@ -3571,16 +3574,16 @@
     </row>
     <row r="86" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E86">
         <v>1194</v>
@@ -3588,16 +3591,16 @@
     </row>
     <row r="87" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D87" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E87">
         <v>46</v>
@@ -3605,16 +3608,16 @@
     </row>
     <row r="88" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -3622,16 +3625,16 @@
     </row>
     <row r="89" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D89" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E89">
         <v>1025</v>
@@ -3639,16 +3642,16 @@
     </row>
     <row r="90" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E90">
         <v>506</v>
@@ -3656,16 +3659,16 @@
     </row>
     <row r="91" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E91">
         <v>800</v>
@@ -3673,16 +3676,16 @@
     </row>
     <row r="92" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E92">
         <v>12</v>
@@ -3690,16 +3693,16 @@
     </row>
     <row r="93" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E93">
         <v>398</v>
@@ -3707,16 +3710,16 @@
     </row>
     <row r="94" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E94">
         <v>430</v>
@@ -3724,16 +3727,16 @@
     </row>
     <row r="95" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E95">
         <v>416</v>
@@ -3741,16 +3744,16 @@
     </row>
     <row r="96" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E96">
         <v>6195</v>
@@ -3758,16 +3761,16 @@
     </row>
     <row r="97" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E97">
         <v>252</v>
@@ -3775,16 +3778,16 @@
     </row>
     <row r="98" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D98" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E98">
         <v>2919</v>
@@ -3792,16 +3795,16 @@
     </row>
     <row r="99" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E99">
         <v>276</v>
@@ -3809,16 +3812,16 @@
     </row>
     <row r="100" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D100" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E100">
         <v>1005</v>
@@ -3826,16 +3829,16 @@
     </row>
     <row r="101" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E101">
         <v>1390</v>
@@ -3843,16 +3846,16 @@
     </row>
     <row r="102" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E102">
         <v>8970</v>
@@ -3860,16 +3863,16 @@
     </row>
     <row r="103" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E103">
         <v>410</v>
@@ -3877,16 +3880,16 @@
     </row>
     <row r="104" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E104">
         <v>749</v>
@@ -3894,16 +3897,16 @@
     </row>
     <row r="105" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E105">
         <v>6574</v>
@@ -3911,16 +3914,16 @@
     </row>
     <row r="106" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E106">
         <v>380</v>
@@ -3928,16 +3931,16 @@
     </row>
     <row r="107" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E107">
         <v>130</v>
@@ -3945,16 +3948,16 @@
     </row>
     <row r="108" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E108">
         <v>1047</v>
@@ -3962,16 +3965,16 @@
     </row>
     <row r="109" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E109">
         <v>607</v>
@@ -3979,16 +3982,16 @@
     </row>
     <row r="110" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E110">
         <v>2239</v>
@@ -3996,16 +3999,16 @@
     </row>
     <row r="111" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D111" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E111">
         <v>4097</v>
@@ -4013,16 +4016,16 @@
     </row>
     <row r="112" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E112">
         <v>458</v>
@@ -4030,16 +4033,16 @@
     </row>
     <row r="113" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E113">
         <v>1038</v>
@@ -4047,16 +4050,16 @@
     </row>
     <row r="114" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E114">
         <v>19</v>
@@ -4064,16 +4067,16 @@
     </row>
     <row r="115" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E115">
         <v>4031</v>
@@ -4081,13 +4084,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D116" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E116">
         <v>1385</v>
@@ -4095,13 +4098,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E117">
         <v>5621</v>
@@ -4109,13 +4112,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D118" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E118">
         <v>4554</v>
@@ -4123,16 +4126,16 @@
     </row>
     <row r="119" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D119" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E119">
         <v>4172</v>
@@ -4140,16 +4143,16 @@
     </row>
     <row r="120" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D120" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E120">
         <v>4084</v>
@@ -4157,16 +4160,16 @@
     </row>
     <row r="121" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D121" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E121">
         <v>3522</v>
@@ -4174,16 +4177,16 @@
     </row>
     <row r="122" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E122">
         <v>1103</v>
@@ -4191,16 +4194,16 @@
     </row>
     <row r="123" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D123" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E123">
         <v>332</v>
@@ -4208,16 +4211,16 @@
     </row>
     <row r="124" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D124" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E124">
         <v>408</v>
@@ -4225,16 +4228,16 @@
     </row>
     <row r="125" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D125" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E125">
         <v>9439</v>
@@ -4242,16 +4245,16 @@
     </row>
     <row r="126" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D126" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E126">
         <v>5514</v>
@@ -4259,16 +4262,16 @@
     </row>
     <row r="127" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D127" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E127">
         <v>583</v>
@@ -4276,13 +4279,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D128" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E128">
         <v>162</v>
@@ -4290,13 +4293,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D129" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E129">
         <v>273</v>
@@ -4304,16 +4307,16 @@
     </row>
     <row r="130" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D130" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E130">
         <v>417</v>
@@ -4321,16 +4324,16 @@
     </row>
     <row r="131" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D131" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E131">
         <v>1082</v>
@@ -4338,16 +4341,16 @@
     </row>
     <row r="132" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D132" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E132">
         <v>1041</v>
@@ -4355,16 +4358,16 @@
     </row>
     <row r="133" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D133" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E133">
         <v>244</v>
@@ -4372,16 +4375,16 @@
     </row>
     <row r="134" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D134" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E134">
         <v>826</v>
@@ -4389,13 +4392,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E135">
         <v>667</v>
@@ -4403,16 +4406,16 @@
     </row>
     <row r="136" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D136" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E136">
         <v>1421</v>
@@ -4420,16 +4423,16 @@
     </row>
     <row r="137" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E137" s="3">
         <v>1158</v>
@@ -4437,16 +4440,16 @@
     </row>
     <row r="138" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D138" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E138">
         <v>415</v>
@@ -4454,16 +4457,16 @@
     </row>
     <row r="139" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D139" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E139">
         <v>3911</v>
@@ -4471,16 +4474,16 @@
     </row>
     <row r="140" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D140" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E140">
         <v>969</v>
@@ -4488,16 +4491,16 @@
     </row>
     <row r="141" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D141" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E141">
         <v>995</v>
@@ -4505,13 +4508,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D142" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E142">
         <v>738</v>
@@ -4519,16 +4522,16 @@
     </row>
     <row r="143" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" t="s">
         <v>184</v>
       </c>
-      <c r="B143" t="s">
-        <v>186</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D143" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E143">
         <v>3524</v>
@@ -4536,16 +4539,16 @@
     </row>
     <row r="144" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B144" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D144" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E144">
         <v>347</v>
@@ -4553,16 +4556,16 @@
     </row>
     <row r="145" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D145" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E145">
         <v>618</v>
@@ -4570,13 +4573,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D146" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E146">
         <v>1095</v>
@@ -4584,16 +4587,16 @@
     </row>
     <row r="147" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D147" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E147">
         <v>290</v>
@@ -4601,13 +4604,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B148" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D148" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E148">
         <v>40</v>
@@ -4615,13 +4618,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B149" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D149" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E149">
         <v>1420</v>
@@ -4629,13 +4632,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D150" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E150">
         <v>1162</v>
@@ -4643,13 +4646,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D151" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E151">
         <v>1416</v>
@@ -4657,13 +4660,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D152" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E152">
         <v>10004</v>
@@ -4671,13 +4674,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D153" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E153">
         <v>855</v>
@@ -4685,13 +4688,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D154" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E154">
         <v>1290</v>
@@ -4699,13 +4702,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D155" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E155">
         <v>11273</v>
@@ -4713,13 +4716,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D156" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E156">
         <v>1423</v>
@@ -4727,13 +4730,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D157" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E157">
         <v>9202</v>
@@ -4741,13 +4744,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D158" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E158">
         <v>3166</v>
@@ -4755,13 +4758,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D159" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E159">
         <v>595</v>
@@ -4769,13 +4772,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D160" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E160">
         <v>7124</v>
@@ -4783,13 +4786,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D161" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E161">
         <v>30204</v>
@@ -4797,13 +4800,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D162" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E162">
         <v>1147</v>
@@ -4811,13 +4814,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D163" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E163">
         <v>1080</v>
@@ -4825,13 +4828,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D164" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E164">
         <v>21688</v>
@@ -4839,16 +4842,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D165" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E165">
         <v>27</v>
@@ -4856,13 +4859,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D166" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E166">
         <v>15</v>
@@ -4870,13 +4873,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D167" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E167">
         <v>23826</v>
@@ -4884,16 +4887,16 @@
     </row>
     <row r="168" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D168" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E168">
         <v>16</v>
@@ -4901,13 +4904,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E169">
         <v>79</v>
@@ -4915,13 +4918,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D170" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E170">
         <v>24</v>
@@ -4929,16 +4932,16 @@
     </row>
     <row r="171" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D171" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E171">
         <v>82</v>
@@ -4946,16 +4949,16 @@
     </row>
     <row r="172" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D172" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E172">
         <v>60</v>
@@ -4963,16 +4966,16 @@
     </row>
     <row r="173" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D173" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E173">
         <v>18</v>
@@ -4980,16 +4983,16 @@
     </row>
     <row r="174" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D174" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E174">
         <v>89</v>
@@ -4997,16 +5000,16 @@
     </row>
     <row r="175" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D175" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E175">
         <v>533</v>
@@ -5014,16 +5017,16 @@
     </row>
     <row r="176" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D176" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E176">
         <v>167</v>
@@ -5031,16 +5034,16 @@
     </row>
     <row r="177" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D177" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E177">
         <v>39</v>
@@ -5048,16 +5051,16 @@
     </row>
     <row r="178" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D178" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E178">
         <v>86</v>
@@ -5065,16 +5068,16 @@
     </row>
     <row r="179" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B179" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D179" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E179">
         <v>3</v>
@@ -5082,16 +5085,16 @@
     </row>
     <row r="180" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D180" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E180">
         <v>80</v>
@@ -5099,13 +5102,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D181" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E181">
         <v>2036</v>
@@ -5113,16 +5116,16 @@
     </row>
     <row r="182" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D182" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E182">
         <v>105</v>
@@ -5130,13 +5133,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B183" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D183" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E183">
         <v>44</v>
@@ -5144,13 +5147,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B184" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D184" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E184">
         <v>41</v>
@@ -5158,16 +5161,16 @@
     </row>
     <row r="185" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B185" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D185" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E185">
         <v>38</v>
@@ -5175,13 +5178,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D186" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E186">
         <v>4</v>
@@ -5189,13 +5192,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D187" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E187">
         <v>35</v>
@@ -5203,16 +5206,16 @@
     </row>
     <row r="188" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B188" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D188" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E188">
         <v>33</v>
@@ -5220,13 +5223,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D189" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E189">
         <v>269</v>
@@ -5234,13 +5237,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B190" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D190" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E190">
         <v>65</v>
@@ -5248,16 +5251,16 @@
     </row>
     <row r="191" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D191" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E191">
         <v>42</v>
@@ -5265,13 +5268,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B192" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D192" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -5279,13 +5282,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B193" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D193" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E193">
         <v>48</v>
@@ -5293,13 +5296,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B194" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D194" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E194">
         <v>64</v>
@@ -5307,13 +5310,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D195" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E195">
         <v>127</v>
@@ -5321,13 +5324,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D196" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E196">
         <v>108</v>
@@ -5335,13 +5338,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>233</v>
+      </c>
+      <c r="B197" t="s">
         <v>235</v>
       </c>
-      <c r="B197" t="s">
-        <v>237</v>
-      </c>
       <c r="D197" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E197">
         <v>187</v>
@@ -5349,13 +5352,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B198" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D198" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E198">
         <v>30</v>
@@ -5363,13 +5366,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D199" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E199">
         <v>23</v>
@@ -5377,13 +5380,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D200" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E200">
         <v>81</v>
@@ -5413,15 +5416,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>COUNTA(Hoja1!C2:C42)</f>
@@ -5430,7 +5433,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <f>COUNTA(Hoja1!C43:C86)</f>
@@ -5439,7 +5442,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <f>COUNTA(Hoja1!C87:C126)</f>
@@ -5448,7 +5451,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <f>COUNTA(Hoja1!C127:C164)</f>
@@ -5457,7 +5460,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6">
         <f>COUNTA(Hoja1!C165:C200)</f>
@@ -5466,7 +5469,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>

--- a/data/aux/Equipos.xlsx
+++ b/data/aux/Equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloseduardogomeztorres/Desktop/BIA/TFG/data/aux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87E722-8982-0F45-9ECD-7DB4CCE49E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10222033-979E-FC44-A3D8-8158EFF69395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="16300" windowHeight="17500" xr2:uid="{FEC05940-2B25-9943-B2F3-CBE66EC2FBE8}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Totthenham</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Nottingham Forest</t>
   </si>
   <si>
-    <t>Luton</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
@@ -1723,6 +1717,12 @@
   </si>
   <si>
     <t>TRANSFERMARKT_HANDLE</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Luton Town</t>
   </si>
 </sst>
 </file>
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B85179C-92BE-5F42-8C39-ADD9E59DFB51}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2136,19 +2136,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
         <v>557</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" t="s">
         <v>559</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>558</v>
-      </c>
-      <c r="D1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.3">
@@ -2162,7 +2162,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E2">
         <v>418</v>
@@ -2179,7 +2179,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E3">
         <v>131</v>
@@ -2196,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E4">
         <v>12321</v>
@@ -2213,7 +2213,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E6">
         <v>621</v>
@@ -2247,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E7">
         <v>681</v>
@@ -2264,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -2281,7 +2281,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9">
         <v>1050</v>
@@ -2298,7 +2298,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10">
         <v>1049</v>
@@ -2315,7 +2315,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11">
         <v>1108</v>
@@ -2332,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E12">
         <v>331</v>
@@ -2349,7 +2349,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E13">
         <v>3709</v>
@@ -2366,7 +2366,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14">
         <v>368</v>
@@ -2383,7 +2383,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E15">
         <v>940</v>
@@ -2400,7 +2400,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E16">
         <v>472</v>
@@ -2417,7 +2417,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E17">
         <v>367</v>
@@ -2434,7 +2434,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E18">
         <v>237</v>
@@ -2451,7 +2451,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E19">
         <v>2687</v>
@@ -2468,7 +2468,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E20">
         <v>16795</v>
@@ -2485,7 +2485,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E21">
         <v>3302</v>
@@ -2502,7 +2502,7 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E22">
         <v>1244</v>
@@ -2519,7 +2519,7 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E23">
         <v>366</v>
@@ -2536,7 +2536,7 @@
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24">
         <v>1533</v>
@@ -2553,7 +2553,7 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E25">
         <v>714</v>
@@ -2570,7 +2570,7 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E26">
         <v>630</v>
@@ -2587,7 +2587,7 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E27">
         <v>2497</v>
@@ -2604,7 +2604,7 @@
         <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E28">
         <v>2448</v>
@@ -2621,7 +2621,7 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E29">
         <v>1531</v>
@@ -2638,7 +2638,7 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E30">
         <v>1176</v>
@@ -2655,7 +2655,7 @@
         <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E31">
         <v>3368</v>
@@ -2672,7 +2672,7 @@
         <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E32">
         <v>1536</v>
@@ -2689,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E33">
         <v>648</v>
@@ -2706,7 +2706,7 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E34">
         <v>7077</v>
@@ -2723,7 +2723,7 @@
         <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E35">
         <v>1532</v>
@@ -2740,7 +2740,7 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E36">
         <v>142</v>
@@ -2757,7 +2757,7 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E37">
         <v>12567</v>
@@ -2774,7 +2774,7 @@
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E38">
         <v>5358</v>
@@ -2791,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E39">
         <v>13222</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E40">
         <v>16575</v>
@@ -2823,7 +2823,7 @@
         <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E41">
         <v>11596</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E42">
         <v>10718</v>
@@ -2852,10 +2852,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E43">
         <v>281</v>
@@ -2869,10 +2869,10 @@
         <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E44">
         <v>11</v>
@@ -2886,10 +2886,10 @@
         <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E45">
         <v>31</v>
@@ -2903,10 +2903,10 @@
         <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E46">
         <v>405</v>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="47" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>560</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E47">
         <v>148</v>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="48" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E48">
         <v>631</v>
@@ -2948,16 +2948,16 @@
     </row>
     <row r="49" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E49">
         <v>762</v>
@@ -2965,16 +2965,16 @@
     </row>
     <row r="50" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E50">
         <v>985</v>
@@ -2982,16 +2982,16 @@
     </row>
     <row r="51" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E51">
         <v>379</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
         <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E52">
         <v>873</v>
@@ -3013,16 +3013,16 @@
     </row>
     <row r="53" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D53" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E53">
         <v>1237</v>
@@ -3030,16 +3030,16 @@
     </row>
     <row r="54" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E54">
         <v>989</v>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="55" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E55">
         <v>931</v>
@@ -3064,16 +3064,16 @@
     </row>
     <row r="56" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E56">
         <v>543</v>
@@ -3081,16 +3081,16 @@
     </row>
     <row r="57" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D57" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E57">
         <v>29</v>
@@ -3098,16 +3098,16 @@
     </row>
     <row r="58" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E58">
         <v>1148</v>
@@ -3115,16 +3115,16 @@
     </row>
     <row r="59" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E59">
         <v>703</v>
@@ -3132,16 +3132,16 @@
     </row>
     <row r="60" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>561</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E60">
         <v>1031</v>
@@ -3149,16 +3149,16 @@
     </row>
     <row r="61" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E61">
         <v>1132</v>
@@ -3166,16 +3166,16 @@
     </row>
     <row r="62" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E62">
         <v>350</v>
@@ -3183,16 +3183,16 @@
     </row>
     <row r="63" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E63">
         <v>1003</v>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="64" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E64">
         <v>677</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="65" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E65">
         <v>399</v>
@@ -3234,16 +3234,16 @@
     </row>
     <row r="66" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E66">
         <v>180</v>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="67" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E67">
         <v>984</v>
@@ -3268,16 +3268,16 @@
     </row>
     <row r="68" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D68" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E68">
         <v>1123</v>
@@ -3285,16 +3285,16 @@
     </row>
     <row r="69" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D69" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E69">
         <v>3008</v>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="70" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E70">
         <v>641</v>
@@ -3319,16 +3319,16 @@
     </row>
     <row r="71" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E71">
         <v>990</v>
@@ -3336,16 +3336,16 @@
     </row>
     <row r="72" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E72">
         <v>466</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="73" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D73" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E73">
         <v>698</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="74" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D74" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E74">
         <v>603</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="75" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D75" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E75">
         <v>1028</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="76" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D76" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E76">
         <v>2288</v>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="77" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D77" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E77">
         <v>1010</v>
@@ -3438,16 +3438,16 @@
     </row>
     <row r="78" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E78">
         <v>289</v>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="79" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E79">
         <v>512</v>
@@ -3472,16 +3472,16 @@
     </row>
     <row r="80" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D80" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E80">
         <v>1039</v>
@@ -3489,16 +3489,16 @@
     </row>
     <row r="81" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D81" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E81">
         <v>164</v>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="82" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E82">
         <v>1035</v>
@@ -3523,16 +3523,16 @@
     </row>
     <row r="83" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E83">
         <v>2262</v>
@@ -3540,16 +3540,16 @@
     </row>
     <row r="84" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D84" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E84">
         <v>337</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="85" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
         <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E85">
         <v>1110</v>
@@ -3574,16 +3574,16 @@
     </row>
     <row r="86" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D86" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E86">
         <v>1194</v>
@@ -3591,16 +3591,16 @@
     </row>
     <row r="87" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D87" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E87">
         <v>46</v>
@@ -3608,16 +3608,16 @@
     </row>
     <row r="88" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -3625,16 +3625,16 @@
     </row>
     <row r="89" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E89">
         <v>1025</v>
@@ -3642,16 +3642,16 @@
     </row>
     <row r="90" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E90">
         <v>506</v>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="91" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E91">
         <v>800</v>
@@ -3676,16 +3676,16 @@
     </row>
     <row r="92" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E92">
         <v>12</v>
@@ -3693,16 +3693,16 @@
     </row>
     <row r="93" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E93">
         <v>398</v>
@@ -3710,16 +3710,16 @@
     </row>
     <row r="94" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E94">
         <v>430</v>
@@ -3727,16 +3727,16 @@
     </row>
     <row r="95" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E95">
         <v>416</v>
@@ -3744,16 +3744,16 @@
     </row>
     <row r="96" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E96">
         <v>6195</v>
@@ -3761,16 +3761,16 @@
     </row>
     <row r="97" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E97">
         <v>252</v>
@@ -3778,16 +3778,16 @@
     </row>
     <row r="98" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E98">
         <v>2919</v>
@@ -3795,16 +3795,16 @@
     </row>
     <row r="99" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E99">
         <v>276</v>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="100" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D100" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E100">
         <v>1005</v>
@@ -3829,16 +3829,16 @@
     </row>
     <row r="101" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E101">
         <v>1390</v>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="102" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D102" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E102">
         <v>8970</v>
@@ -3863,16 +3863,16 @@
     </row>
     <row r="103" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D103" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E103">
         <v>410</v>
@@ -3880,16 +3880,16 @@
     </row>
     <row r="104" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D104" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E104">
         <v>749</v>
@@ -3897,16 +3897,16 @@
     </row>
     <row r="105" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D105" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E105">
         <v>6574</v>
@@ -3914,16 +3914,16 @@
     </row>
     <row r="106" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E106">
         <v>380</v>
@@ -3931,16 +3931,16 @@
     </row>
     <row r="107" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E107">
         <v>130</v>
@@ -3948,16 +3948,16 @@
     </row>
     <row r="108" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E108">
         <v>1047</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="109" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E109">
         <v>607</v>
@@ -3982,16 +3982,16 @@
     </row>
     <row r="110" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E110">
         <v>2239</v>
@@ -3999,16 +3999,16 @@
     </row>
     <row r="111" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E111">
         <v>4097</v>
@@ -4016,16 +4016,16 @@
     </row>
     <row r="112" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E112">
         <v>458</v>
@@ -4033,16 +4033,16 @@
     </row>
     <row r="113" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D113" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E113">
         <v>1038</v>
@@ -4050,16 +4050,16 @@
     </row>
     <row r="114" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D114" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E114">
         <v>19</v>
@@ -4067,16 +4067,16 @@
     </row>
     <row r="115" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E115">
         <v>4031</v>
@@ -4084,13 +4084,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E116">
         <v>1385</v>
@@ -4098,13 +4098,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D117" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E117">
         <v>5621</v>
@@ -4112,13 +4112,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E118">
         <v>4554</v>
@@ -4126,16 +4126,16 @@
     </row>
     <row r="119" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D119" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E119">
         <v>4172</v>
@@ -4143,16 +4143,16 @@
     </row>
     <row r="120" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D120" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E120">
         <v>4084</v>
@@ -4160,16 +4160,16 @@
     </row>
     <row r="121" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D121" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E121">
         <v>3522</v>
@@ -4177,16 +4177,16 @@
     </row>
     <row r="122" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D122" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E122">
         <v>1103</v>
@@ -4194,16 +4194,16 @@
     </row>
     <row r="123" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D123" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E123">
         <v>332</v>
@@ -4211,16 +4211,16 @@
     </row>
     <row r="124" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D124" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E124">
         <v>408</v>
@@ -4228,16 +4228,16 @@
     </row>
     <row r="125" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D125" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E125">
         <v>9439</v>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="126" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E126">
         <v>5514</v>
@@ -4262,16 +4262,16 @@
     </row>
     <row r="127" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D127" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E127">
         <v>583</v>
@@ -4279,13 +4279,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D128" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E128">
         <v>162</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D129" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E129">
         <v>273</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="130" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D130" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E130">
         <v>417</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="131" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D131" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E131">
         <v>1082</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="132" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D132" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E132">
         <v>1041</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="133" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D133" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E133">
         <v>244</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="134" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D134" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E134">
         <v>826</v>
@@ -4392,13 +4392,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D135" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E135">
         <v>667</v>
@@ -4406,16 +4406,16 @@
     </row>
     <row r="136" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D136" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E136">
         <v>1421</v>
@@ -4423,16 +4423,16 @@
     </row>
     <row r="137" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E137" s="3">
         <v>1158</v>
@@ -4440,16 +4440,16 @@
     </row>
     <row r="138" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B138" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E138">
         <v>415</v>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="139" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D139" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E139">
         <v>3911</v>
@@ -4474,16 +4474,16 @@
     </row>
     <row r="140" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D140" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E140">
         <v>969</v>
@@ -4491,16 +4491,16 @@
     </row>
     <row r="141" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D141" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E141">
         <v>995</v>
@@ -4508,13 +4508,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D142" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E142">
         <v>738</v>
@@ -4522,16 +4522,16 @@
     </row>
     <row r="143" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" t="s">
         <v>182</v>
       </c>
-      <c r="B143" t="s">
-        <v>184</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D143" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E143">
         <v>3524</v>
@@ -4539,16 +4539,16 @@
     </row>
     <row r="144" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D144" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E144">
         <v>347</v>
@@ -4556,16 +4556,16 @@
     </row>
     <row r="145" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D145" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E145">
         <v>618</v>
@@ -4573,13 +4573,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D146" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E146">
         <v>1095</v>
@@ -4587,16 +4587,16 @@
     </row>
     <row r="147" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D147" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E147">
         <v>290</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D148" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E148">
         <v>40</v>
@@ -4618,13 +4618,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D149" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E149">
         <v>1420</v>
@@ -4632,13 +4632,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D150" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E150">
         <v>1162</v>
@@ -4646,13 +4646,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D151" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E151">
         <v>1416</v>
@@ -4660,13 +4660,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D152" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E152">
         <v>10004</v>
@@ -4674,13 +4674,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E153">
         <v>855</v>
@@ -4688,13 +4688,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D154" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E154">
         <v>1290</v>
@@ -4702,13 +4702,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D155" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E155">
         <v>11273</v>
@@ -4716,13 +4716,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D156" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E156">
         <v>1423</v>
@@ -4730,13 +4730,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D157" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E157">
         <v>9202</v>
@@ -4744,13 +4744,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D158" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E158">
         <v>3166</v>
@@ -4758,13 +4758,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D159" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E159">
         <v>595</v>
@@ -4772,13 +4772,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D160" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E160">
         <v>7124</v>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D161" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E161">
         <v>30204</v>
@@ -4800,13 +4800,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D162" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E162">
         <v>1147</v>
@@ -4814,13 +4814,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D163" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E163">
         <v>1080</v>
@@ -4828,13 +4828,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D164" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E164">
         <v>21688</v>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B165" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D165" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E165">
         <v>27</v>
@@ -4859,13 +4859,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D166" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E166">
         <v>15</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D167" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E167">
         <v>23826</v>
@@ -4887,16 +4887,16 @@
     </row>
     <row r="168" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E168">
         <v>16</v>
@@ -4904,13 +4904,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D169" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E169">
         <v>79</v>
@@ -4918,13 +4918,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D170" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E170">
         <v>24</v>
@@ -4932,16 +4932,16 @@
     </row>
     <row r="171" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D171" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E171">
         <v>82</v>
@@ -4949,16 +4949,16 @@
     </row>
     <row r="172" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D172" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E172">
         <v>60</v>
@@ -4966,16 +4966,16 @@
     </row>
     <row r="173" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D173" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E173">
         <v>18</v>
@@ -4983,16 +4983,16 @@
     </row>
     <row r="174" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B174" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D174" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E174">
         <v>89</v>
@@ -5000,16 +5000,16 @@
     </row>
     <row r="175" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B175" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D175" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E175">
         <v>533</v>
@@ -5017,16 +5017,16 @@
     </row>
     <row r="176" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B176" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D176" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E176">
         <v>167</v>
@@ -5034,16 +5034,16 @@
     </row>
     <row r="177" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B177" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D177" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E177">
         <v>39</v>
@@ -5051,16 +5051,16 @@
     </row>
     <row r="178" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B178" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D178" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E178">
         <v>86</v>
@@ -5068,16 +5068,16 @@
     </row>
     <row r="179" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B179" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D179" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E179">
         <v>3</v>
@@ -5085,16 +5085,16 @@
     </row>
     <row r="180" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D180" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E180">
         <v>80</v>
@@ -5102,13 +5102,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B181" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D181" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E181">
         <v>2036</v>
@@ -5116,16 +5116,16 @@
     </row>
     <row r="182" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D182" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E182">
         <v>105</v>
@@ -5133,13 +5133,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B183" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D183" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E183">
         <v>44</v>
@@ -5147,13 +5147,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D184" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E184">
         <v>41</v>
@@ -5161,16 +5161,16 @@
     </row>
     <row r="185" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B185" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D185" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E185">
         <v>38</v>
@@ -5178,13 +5178,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B186" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D186" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E186">
         <v>4</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D187" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E187">
         <v>35</v>
@@ -5206,16 +5206,16 @@
     </row>
     <row r="188" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D188" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E188">
         <v>33</v>
@@ -5223,13 +5223,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D189" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E189">
         <v>269</v>
@@ -5237,13 +5237,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D190" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E190">
         <v>65</v>
@@ -5251,16 +5251,16 @@
     </row>
     <row r="191" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D191" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E191">
         <v>42</v>
@@ -5268,13 +5268,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D192" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -5282,13 +5282,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B193" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D193" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E193">
         <v>48</v>
@@ -5296,13 +5296,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B194" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D194" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E194">
         <v>64</v>
@@ -5310,13 +5310,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B195" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D195" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E195">
         <v>127</v>
@@ -5324,13 +5324,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B196" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D196" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E196">
         <v>108</v>
@@ -5338,13 +5338,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>231</v>
+      </c>
+      <c r="B197" t="s">
         <v>233</v>
       </c>
-      <c r="B197" t="s">
-        <v>235</v>
-      </c>
       <c r="D197" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E197">
         <v>187</v>
@@ -5352,13 +5352,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B198" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D198" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E198">
         <v>30</v>
@@ -5366,13 +5366,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D199" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E199">
         <v>23</v>
@@ -5380,13 +5380,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B200" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D200" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E200">
         <v>81</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5442,7 +5442,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B4">
         <f>COUNTA(Hoja1!C87:C126)</f>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <f>COUNTA(Hoja1!C127:C164)</f>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6">
         <f>COUNTA(Hoja1!C165:C200)</f>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
